--- a/Oregoncountries.xlsx
+++ b/Oregoncountries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stlp\Documents\GitHub\numberofcountries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A70DC7-E195-4140-A465-1CFB052C0258}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA38B6CE-8E16-4A8A-85F6-A72C9B587425}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>China</t>
   </si>
@@ -737,6 +737,9 @@
   </si>
   <si>
     <t>twentyone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exim or sba - ask for specific individuals at banks locally </t>
   </si>
 </sst>
 </file>
@@ -1629,10 +1632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M230"/>
+  <dimension ref="A1:M232"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D219" workbookViewId="0">
+      <selection activeCell="F232" sqref="F232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10973,6 +10976,11 @@
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
     </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F232" t="s">
+        <v>239</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A229:E229"/>
